--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>1.91783940444</v>
+        <v>1.322485318588889</v>
       </c>
       <c r="R2">
-        <v>17.26055463996</v>
+        <v>11.9023678673</v>
       </c>
       <c r="S2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="T2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
         <v>0.1842320890533333</v>
@@ -632,10 +632,10 @@
         <v>1.65808880148</v>
       </c>
       <c r="S3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="T3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>0.8887384325122222</v>
+        <v>0.7900010213722222</v>
       </c>
       <c r="R4">
-        <v>7.998645892609999</v>
+        <v>7.11000919235</v>
       </c>
       <c r="S4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="T4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
     </row>
   </sheetData>
